--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/15/seed5/result_data_RandomForest.xlsx
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.903199999999997</v>
+        <v>5.602600000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.40069999999999</v>
+        <v>-21.38819999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -631,7 +631,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.2064</v>
+        <v>-13.7001</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.97020000000001</v>
+        <v>-12.90090000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.739799999999997</v>
+        <v>8.410000000000002</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.14189999999999</v>
+        <v>-13.06759999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.01390000000001</v>
+        <v>-21.98289999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.549100000000003</v>
+        <v>5.305099999999998</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.10759999999998</v>
+        <v>-21.04469999999998</v>
       </c>
       <c r="B32" t="n">
-        <v>6.090199999999995</v>
+        <v>6.160599999999997</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.807900000000004</v>
+        <v>9.497400000000004</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.80770000000001</v>
+        <v>-19.7297</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.32169999999999</v>
+        <v>-19.8748</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.2872</v>
+        <v>-10.68620000000001</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.52120000000001</v>
+        <v>-12.66140000000001</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.5391</v>
+        <v>10.0325</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.8445</v>
+        <v>-21.72689999999999</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.291900000000004</v>
+        <v>5.2874</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.3025</v>
+        <v>-11.195</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.6477</v>
+        <v>-21.92180000000001</v>
       </c>
       <c r="B54" t="n">
-        <v>4.425899999999998</v>
+        <v>4.2381</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.20790000000001</v>
+        <v>-22.0343</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.07270000000001</v>
+        <v>-22.16230000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.44709999999996</v>
+        <v>-21.52949999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.43789999999998</v>
+        <v>-21.60469999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.85549999999999</v>
+        <v>-22.05099999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.3549</v>
+        <v>-12.2692</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1524,10 +1524,10 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.696499999999997</v>
+        <v>9.6401</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.3618</v>
+        <v>-12.3019</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.585499999999998</v>
+        <v>9.428600000000003</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.78019999999999</v>
+        <v>-21.60439999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.5809</v>
+        <v>-13.00339999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-14.43019999999999</v>
+        <v>-12.98079999999999</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.95020000000001</v>
+        <v>-21.45249999999999</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.5438</v>
+        <v>-12.828</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1695,7 +1695,7 @@
         <v>4.69</v>
       </c>
       <c r="C90" t="n">
-        <v>-9.973999999999997</v>
+        <v>-10.0916</v>
       </c>
       <c r="D90" t="n">
         <v>-7</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.60769999999999</v>
+        <v>-20.70319999999999</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.4831</v>
+        <v>-21.35350000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.7578</v>
+        <v>-10.1033</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>6.753299999999997</v>
+        <v>6.298399999999995</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.86129999999999</v>
+        <v>-21.97490000000001</v>
       </c>
       <c r="B99" t="n">
-        <v>5.275999999999995</v>
+        <v>5.166499999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.284000000000001</v>
+        <v>4.026800000000002</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1877,7 +1877,7 @@
         <v>5.09</v>
       </c>
       <c r="C103" t="n">
-        <v>-12.9906</v>
+        <v>-12.44849999999999</v>
       </c>
       <c r="D103" t="n">
         <v>-7.71</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.41349999999999</v>
+        <v>-21.4967</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
